--- a/PSO_GA_case3.xlsx
+++ b/PSO_GA_case3.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>165.078125</t>
+          <t>600.203125</t>
         </is>
       </c>
     </row>
@@ -473,17 +473,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1154.0</t>
+          <t>1063.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>165.296875</t>
+          <t>600.015625</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1189.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>166.328125</t>
+          <t>600.484375</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1147.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>164.90625</t>
+          <t>601.03125</t>
         </is>
       </c>
     </row>
@@ -539,17 +539,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1179.0</t>
+          <t>1081.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>163.421875</t>
+          <t>600.9375</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1129.0</t>
+          <t>1055.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>164.28125</t>
+          <t>601.515625</t>
         </is>
       </c>
     </row>
@@ -583,17 +583,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1111.0</t>
+          <t>1049.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>164.84375</t>
+          <t>601.359375</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1147.0</t>
+          <t>1042.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>165.296875</t>
+          <t>600.015625</t>
         </is>
       </c>
     </row>
@@ -627,17 +627,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1111.0</t>
+          <t>1074.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>165.984375</t>
+          <t>600.25</t>
         </is>
       </c>
     </row>
@@ -649,17 +649,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1132.0</t>
+          <t>1087.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>164.96875</t>
+          <t>600.078125</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1090.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>165.578125</t>
+          <t>600.859375</t>
         </is>
       </c>
     </row>
@@ -693,17 +693,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1069.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>161.28125</t>
+          <t>600.53125</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>162.375</t>
+          <t>600.984375</t>
         </is>
       </c>
     </row>
@@ -737,17 +737,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1104.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>161.90625</t>
+          <t>600.5</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1073.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>162.140625</t>
+          <t>601.5</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1156.0</t>
+          <t>1048.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>161.40625</t>
+          <t>600.171875</t>
         </is>
       </c>
     </row>
@@ -803,17 +803,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1130.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>161.515625</t>
+          <t>600.65625</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1179.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>161.671875</t>
+          <t>601.078125</t>
         </is>
       </c>
     </row>
@@ -847,17 +847,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>164.046875</t>
+          <t>601.21875</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1129.0</t>
+          <t>1061.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>164.6875</t>
+          <t>600.0</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1124.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>164.1875</t>
+          <t>600.828125</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1167.0</t>
+          <t>1099.0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>164.734375</t>
+          <t>600.84375</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1086.0</t>
+          <t>1072.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>164.109375</t>
+          <t>600.828125</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1148.0</t>
+          <t>1066.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>163.859375</t>
+          <t>600.671875</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1129.0</t>
+          <t>1125.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>164.3125</t>
+          <t>600.96875</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1083.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>164.296875</t>
+          <t>600.546875</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1075.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>164.421875</t>
+          <t>601.109375</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1093.0</t>
+          <t>1074.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>164.671875</t>
+          <t>600.375</t>
         </is>
       </c>
     </row>
@@ -1067,17 +1067,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1201.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>163.453125</t>
+          <t>600.984375</t>
         </is>
       </c>
     </row>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1141.0</t>
+          <t>1046.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>162.484375</t>
+          <t>601.046875</t>
         </is>
       </c>
     </row>
